--- a/pred_ohlcv/54_21/2020-01-21 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FCT ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>26774.52415349147</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>26774.52415349147</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>26791.52415349147</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>36880.67145349146</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>36880.67145349146</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42806.01015349146</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>37293.95410917736</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-34483185.71712409</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-34483185.71712409</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-34600304.02902409</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34748762.37262409</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-34738993.0005327</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-34781620.3619327</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-34812322.0414327</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-34679862.2119327</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-41448764.38953271</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-41396855.88301618</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-41449542.3276763</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-41449575.3276763</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-41105294.95827629</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-41107833.12137629</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-41104827.13050221</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-41104719.50120221</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-41138387.31800221</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-41151530.99000221</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-41151530.99000221</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-41171181.92740221</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-41196375.81310221</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-41195708.14540221</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-41167398.81340221</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-41190445.44380221</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-41182693.16490221</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-41182693.16490221</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-41184080.24800221</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-41185573.07930221</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-41197324.6254022</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-41253122.34855794</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-41253122.34855794</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-41253122.34855794</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-41238543.04140221</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-41250189.66869472</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-41250189.66869472</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-41250489.66869472</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-41250489.66869472</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-41250684.34679471</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-41423049.3228947</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-41415964.2733947</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-41345964.2733947</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-41477864.7017947</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-41481383.1957947</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-41508768.83879471</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-41434226.37815452</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-41495314.17265453</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-41510314.17265453</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-41480671.40738122</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-41480597.78488122</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-41343406.20648122</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-41372251.58828123</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-41370533.58828123</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-41370691.91633696</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-41044801.82333697</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-41044701.82333697</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-41078336.69501728</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-41103079.84303786</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-41103923.15353786</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-41079339.56863786</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-41093534.20343786</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-40955283.68930195</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FCT ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34748762.37262409</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-34738993.0005327</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-34781620.3619327</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-34812322.0414327</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-34679862.2119327</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-41344264.05513271</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-41448764.38953271</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-41396855.88301618</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-41431102.29797629</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-41449542.3276763</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-41449575.3276763</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-41332655.2586763</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-41055876.9645763</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-41105294.95827629</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-41107833.12137629</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-41111782.32230221</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-41105311.27320221</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-41104827.13050221</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-41104827.13050221</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-41104719.50120221</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-41138387.31800221</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-41151530.99000221</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-41196375.81310221</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-41195708.14540221</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-41270966.14890221</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-41270966.14890221</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-41270898.57780221</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-41293945.20820221</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-41252172.34855794</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-41253122.34855794</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-41242381.52510221</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-41238543.04140221</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-41238543.04140221</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-41250189.66869472</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-41250189.66869472</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-41250489.66869472</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-41250489.66869472</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-41230668.34679471</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-41236270.04229471</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-41236223.81279471</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-41237111.52539471</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-41225672.4274947</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-41225649.3634947</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-41225649.3634947</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-41225649.3634947</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-41234214.7339947</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-41260321.3226947</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-41322715.1625947</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-41423049.3228947</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-41415964.2733947</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-41345964.2733947</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-41477864.7017947</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-41479248.5989947</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-41481383.1957947</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-41508768.83879471</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-41434226.37815452</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-41486203.76885453</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-41495314.17265453</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-41510314.17265453</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-41480671.40738122</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-41480597.78488122</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-41343406.20648122</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-41344843.88408122</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-41372251.58828123</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-41370533.58828123</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-41037886.56393697</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-41044801.82333697</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-41044701.82333697</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-41103142.51853786</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-41103079.84303786</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-41103923.15353786</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-41079339.56863786</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-41093534.20343786</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-40955283.68930195</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-40902272.65323917</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
